--- a/docs/LB-307-5_Teil2_Bewertungsraster_V1.00.xlsx
+++ b/docs/LB-307-5_Teil2_Bewertungsraster_V1.00.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Informatik\Ausbildung\üKs\307\Inhalt\Tag 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kochtopf\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -935,7 +935,7 @@
   <dimension ref="B1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -946,9 +946,9 @@
     <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="76.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="74.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="57.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
